--- a/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
+++ b/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4268C9F7-826D-4F44-8FB8-14CE6F99A9BA}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AE246F-39DC-446D-A17F-8CCEE2AFA34B}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchInterviewersGetController" sheetId="12" r:id="rId1"/>
@@ -18,8 +18,8 @@
     <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
     <sheet name="LoginController" sheetId="2" r:id="rId4"/>
     <sheet name="InterviewerSetController" sheetId="5" r:id="rId5"/>
-    <sheet name="InterviewerGetController" sheetId="6" r:id="rId6"/>
-    <sheet name="InterviewerDeleteController" sheetId="7" r:id="rId7"/>
+    <sheet name="InterviewerDeleteController" sheetId="7" r:id="rId6"/>
+    <sheet name="InterviewerGetController" sheetId="6" r:id="rId7"/>
     <sheet name="InterviewersGetController" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -911,7 +911,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@PostMapping("/manager/signup")</a:t>
+            <a:t>@PostMapping("/manager/interviewer_signup")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1315,7 +1315,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@PostMapping("/manager/signup/confirm")</a:t>
+            <a:t>@PostMapping("/manager/interviewer_signup/confirm")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1719,7 +1719,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>@GetMapping("/manager/signup/return")</a:t>
+            <a:t>@GetMapping("/manager/interviewer_signup/return")</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3249,7 +3249,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>getInterviewer (session : HttpSession, redirectAttributes : RedirectAttributes, form :  InterviewerSetForm, id : @RequestParam int )</a:t>
+            <a:t>getInterviewer (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam int )</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3870,6 +3870,494 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewerDeleteController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="1009650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/interviewer_delete")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>deleteInterviewer (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam int )</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFEA6C5-248E-42A7-9F1A-3406CC52C11E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3133725"/>
+          <a:ext cx="7096125" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : InterviewerDeleteService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
@@ -4344,494 +4832,6 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>service : InterviewerGetService</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="角丸四角形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6562725" y="1743075"/>
-          <a:ext cx="8343900" cy="9067800"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFEBC7"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>InterviewerDeleteController</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="四角形 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CC5F91D1-11A0-488B-9C80-5F3F575380FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7353300" y="4181475"/>
-          <a:ext cx="6667500" cy="1009650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="91A5C4"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>@GetMapping("/manager/interviewer_delete")</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>deleteInterviewer (session : HttpSession, redirectAttributes : RedirectAttributes, id : @RequestParam int )</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>--r String</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAFEA6C5-248E-42A7-9F1A-3406CC52C11E}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2BCF19B1-0BB1-4405-9B00-A25E12D6409A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7362825" y="3133725"/>
-          <a:ext cx="7096125" cy="742950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
-          <a:prstTxWarp prst="textNoShape">
-            <a:avLst/>
-          </a:prstTxWarp>
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle>
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="l">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:schemeClr val="lt1"/>
-              </a:solidFill>
-              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>service : InterviewerDeleteService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5947,8 +5947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H12" workbookViewId="0">
-      <selection activeCell="Y31" sqref="Y31"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6006,7 +6006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329986C0-14B3-4C9F-B9AF-81FBAF041C30}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="C8" workbookViewId="0">
+    <sheetView topLeftCell="J8" workbookViewId="0">
       <selection activeCell="Y18" sqref="Y18"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6114,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
+    <sheetView topLeftCell="J8" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
@@ -6162,11 +6162,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="AC19" sqref="AC19"/>
+    <sheetView topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6216,11 +6216,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE18D3D-761F-46DB-9258-85794929C29F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C7FC7A-E21B-40DE-9E1E-93C1E1B70605}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="G4" workbookViewId="0">
+      <selection activeCell="AC19" sqref="AC19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
+++ b/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5AE246F-39DC-446D-A17F-8CCEE2AFA34B}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C84A87A-125F-4B89-B32B-F4EB47A5F6DC}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchInterviewersGetController" sheetId="12" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="InterviewerDeleteController" sheetId="7" r:id="rId6"/>
     <sheet name="InterviewerGetController" sheetId="6" r:id="rId7"/>
     <sheet name="InterviewersGetController" sheetId="8" r:id="rId8"/>
+    <sheet name="ManagerGetController" sheetId="13" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="8">
   <si>
     <t>　--r 返り値のデータ型</t>
     <phoneticPr fontId="2"/>
@@ -61,6 +62,18 @@
   </si>
   <si>
     <t>return ← back</t>
+  </si>
+  <si>
+    <t>　--r 返り値のデータ型</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> フィールド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> メソッド</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5565,6 +5578,585 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>service : InterviewersGetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E804AB3-D137-43FD-AC81-14D968FE918E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{5B5E1C1B-F054-4669-9184-51D39BD79295}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6562725" y="1743075"/>
+          <a:ext cx="8343900" cy="9067800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ManagerGetController</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3EF98E4-3523-4864-9004-67BF02A8CC69}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1E804AB3-D137-43FD-AC81-14D968FE918E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="4181475"/>
+          <a:ext cx="6667500" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="91A5C4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>@GetMapping("/manager/manager_get")</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>getManager (session : HttpSession, redirectAttributes : RedirectAttributes)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>--r String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6805DBD6-350E-4A04-8D93-6B7FA35236D7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{C3EF98E4-3523-4864-9004-67BF02A8CC69}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7362825" y="3562350"/>
+          <a:ext cx="2476500" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>service : ManagerGetService </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5893,7 +6485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF0B78BB-DCBF-4346-A456-D888C1A0341D}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" workbookViewId="0">
+    <sheetView topLeftCell="J4" workbookViewId="0">
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
@@ -6114,7 +6706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C830DED-86E5-45DB-BDE5-862D10116DFB}">
   <dimension ref="G20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="J8" workbookViewId="0">
+    <sheetView topLeftCell="I8" workbookViewId="0">
       <selection activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
@@ -6321,4 +6913,58 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF98347C-7DEC-476F-BB49-67827A251764}">
+  <dimension ref="F20:O105"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="20" spans="7:8">
+      <c r="G20" t="s">
+        <v>5</v>
+      </c>
+      <c r="H20" s="3"/>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="12:15">
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="12:15">
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="105" spans="6:7" ht="24">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
+++ b/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C84A87A-125F-4B89-B32B-F4EB47A5F6DC}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D908FCB4-1F57-47CE-AFF9-70A486EBBB66}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchInterviewersGetController" sheetId="12" r:id="rId1"/>
-    <sheet name="SignupController" sheetId="3" r:id="rId2"/>
+    <sheet name="InterviewerSignupController" sheetId="3" r:id="rId2"/>
     <sheet name="LogoutController" sheetId="11" r:id="rId3"/>
     <sheet name="LoginController" sheetId="2" r:id="rId4"/>
     <sheet name="InterviewerSetController" sheetId="5" r:id="rId5"/>
@@ -744,7 +744,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>SignupController</a:t>
+            <a:t>InterviewerSignupController</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -983,8 +983,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -1004,8 +1004,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7315200" y="3086100"/>
-          <a:ext cx="1895475" cy="333375"/>
+          <a:off x="7315200" y="3657600"/>
+          <a:ext cx="2981325" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1148,7 +1148,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>service : SignupService </a:t>
+            <a:t>service : InterviewerSignupService </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1381,16 +1381,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1400,7 +1400,7 @@
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0776D66C-D37C-4A3D-BD8C-D4EF702C7FDE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{E914401F-AF0F-408F-872C-E961877D1298}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{9E58CA47-D76B-4CF3-AB75-824D46D74819}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1408,7 +1408,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9553575" y="3667125"/>
+          <a:off x="11658600" y="3629025"/>
           <a:ext cx="2667000" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6540,7 +6540,7 @@
   <dimension ref="F20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
+++ b/class_diagram/after/controller/manager/面談予約システム_クラス図 (controller.manager).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\controller\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="91" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D908FCB4-1F57-47CE-AFF9-70A486EBBB66}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{4D8DBD50-3EFF-4460-8A5A-A1FCC37C2F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E313640B-64E0-4565-A243-10B39C65520E}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="8" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SearchInterviewersGetController" sheetId="12" r:id="rId1"/>
@@ -3869,6 +3869,186 @@
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>service : InterviewerSetService</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047A873E-E8E4-4E17-BE6C-8E49DCA33CFD}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7A7830B9-7352-47B6-9237-78097C09C980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12201525" y="3362325"/>
+          <a:ext cx="2352675" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>mailService : MailSendService</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -6539,8 +6719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB3CB10-B87D-44C0-A1AD-22E28BBBB972}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6707,7 +6887,7 @@
   <dimension ref="G20:O105"/>
   <sheetViews>
     <sheetView topLeftCell="I8" workbookViewId="0">
-      <selection activeCell="Z32" sqref="Z32"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6919,7 +7099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF98347C-7DEC-476F-BB49-67827A251764}">
   <dimension ref="F20:O105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
